--- a/upgrades.xlsx
+++ b/upgrades.xlsx
@@ -398,15 +398,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -454,6 +445,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,7 +738,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G12" sqref="B2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -779,18 +779,18 @@
       <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <v>2.7182818283999999</v>
       </c>
     </row>
@@ -798,26 +798,26 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>400000</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12">
         <v>100</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <v>2000</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="14">
         <v>3.1415926535000001</v>
       </c>
     </row>
@@ -825,25 +825,25 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
-        <f>ROUND(C3*POWER(C$1,A4),0)</f>
+      <c r="C4" s="10">
+        <f>ROUND(C$3*POWER(C$1,A4),0)</f>
         <v>534282</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <f>ROUND(E3*POWER(C$1,A4),0)</f>
         <v>134</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="16">
-        <f>ROUND(G3*POWER(C$1,A4)/(I$3/I$2),0)</f>
+      <c r="G4" s="13">
+        <f>ROUND(G3*POWER(C$1,A3),0)</f>
         <v>2311</v>
       </c>
       <c r="H4" s="3"/>
@@ -853,23 +853,23 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C12" si="0">ROUND(C4*POWER(C$1,A5),0)</f>
         <v>824777</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12">
         <f t="shared" ref="E5:E12" si="1">ROUND(E4*POWER(C$1,A5),0)</f>
         <v>207</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="16">
-        <f t="shared" ref="G5:G12" si="2">ROUND(G4*POWER(C$1,A5)/(I$3/I$2),0)</f>
+      <c r="G5" s="13">
+        <f t="shared" ref="G5:G12" si="2">ROUND(G4*POWER(C$1,A4),0)</f>
         <v>3087</v>
       </c>
       <c r="H5" s="3"/>
@@ -879,24 +879,24 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>1471493</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <f t="shared" si="1"/>
         <v>369</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="13">
         <f t="shared" si="2"/>
         <v>4765</v>
       </c>
@@ -907,22 +907,22 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>3034137</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12">
         <f t="shared" si="1"/>
         <v>761</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="13">
         <f t="shared" si="2"/>
         <v>8501</v>
       </c>
@@ -933,22 +933,22 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>7230487</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12">
         <f t="shared" si="1"/>
         <v>1813</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="13">
         <f t="shared" si="2"/>
         <v>17529</v>
       </c>
@@ -959,22 +959,22 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>19913852</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
         <v>4993</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="13">
         <f t="shared" si="2"/>
         <v>41772</v>
       </c>
@@ -985,22 +985,22 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>63386738</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>15893</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="13">
         <f t="shared" si="2"/>
         <v>115046</v>
       </c>
@@ -1011,22 +1011,22 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>233183018</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15">
+      <c r="D11" s="11"/>
+      <c r="E11" s="12">
         <f t="shared" si="1"/>
         <v>58466</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <f t="shared" si="2"/>
         <v>366197</v>
       </c>
@@ -1037,22 +1037,22 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <f t="shared" si="0"/>
         <v>991404365</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23">
+      <c r="D12" s="19"/>
+      <c r="E12" s="20">
         <f t="shared" si="1"/>
         <v>248575</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="21">
         <f t="shared" si="2"/>
         <v>1347142</v>
       </c>

--- a/upgrades.xlsx
+++ b/upgrades.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VANA" sheetId="1" r:id="rId1"/>
+    <sheet name="ÕIGE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>upgrades</t>
   </si>
@@ -377,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -396,6 +397,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -470,6 +474,2693 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="et-EE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VANA!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17529</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41772</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115046</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>366197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1347142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1528363440"/>
+        <c:axId val="1760473312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1528363440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1760473312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1760473312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1528363440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="et-EE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="et-EE"/>
+              <a:t>income</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="et-EE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ÕIGE!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1765470064"/>
+        <c:axId val="1765470608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1765470064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765470608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1765470608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765470064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="et-EE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="et-EE"/>
+              <a:t>cost</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="et-EE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ÕIGE!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>618584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1103622</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2275607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5422875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14935416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47540139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174887578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>743554611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1758659136"/>
+        <c:axId val="1758660224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1758659136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1758660224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1758660224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1758659136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="et-EE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>589360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>303610</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>64889</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>583407</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88701</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>482204</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>154186</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,8 +3428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G12" sqref="B2:G12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -779,18 +3470,18 @@
       <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="9">
         <v>2.7182818283999999</v>
       </c>
     </row>
@@ -798,26 +3489,26 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>400000</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13">
         <v>100</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="14">
         <v>2000</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="15">
         <v>3.1415926535000001</v>
       </c>
     </row>
@@ -825,24 +3516,24 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <f>ROUND(C$3*POWER(C$1,A4),0)</f>
         <v>534282</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <f>ROUND(E3*POWER(C$1,A4),0)</f>
         <v>134</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <f>ROUND(G3*POWER(C$1,A3),0)</f>
         <v>2311</v>
       </c>
@@ -853,22 +3544,22 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <f t="shared" ref="C5:C12" si="0">ROUND(C4*POWER(C$1,A5),0)</f>
         <v>824777</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13">
         <f t="shared" ref="E5:E12" si="1">ROUND(E4*POWER(C$1,A5),0)</f>
         <v>207</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="14">
         <f t="shared" ref="G5:G12" si="2">ROUND(G4*POWER(C$1,A4),0)</f>
         <v>3087</v>
       </c>
@@ -879,24 +3570,24 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <f t="shared" si="0"/>
         <v>1471493</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <f t="shared" si="1"/>
         <v>369</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="14">
         <f t="shared" si="2"/>
         <v>4765</v>
       </c>
@@ -907,22 +3598,22 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <f t="shared" si="0"/>
         <v>3034137</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12">
+      <c r="D7" s="12"/>
+      <c r="E7" s="13">
         <f t="shared" si="1"/>
         <v>761</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <f t="shared" si="2"/>
         <v>8501</v>
       </c>
@@ -933,22 +3624,22 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>7230487</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13">
         <f t="shared" si="1"/>
         <v>1813</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <f t="shared" si="2"/>
         <v>17529</v>
       </c>
@@ -959,22 +3650,22 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <f t="shared" si="0"/>
         <v>19913852</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12">
+      <c r="D9" s="12"/>
+      <c r="E9" s="13">
         <f t="shared" si="1"/>
         <v>4993</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <f t="shared" si="2"/>
         <v>41772</v>
       </c>
@@ -985,22 +3676,22 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <f t="shared" si="0"/>
         <v>63386738</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12">
+      <c r="D10" s="12"/>
+      <c r="E10" s="13">
         <f t="shared" si="1"/>
         <v>15893</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="14">
         <f t="shared" si="2"/>
         <v>115046</v>
       </c>
@@ -1011,22 +3702,22 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <f t="shared" si="0"/>
         <v>233183018</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12">
+      <c r="D11" s="12"/>
+      <c r="E11" s="13">
         <f t="shared" si="1"/>
         <v>58466</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="14">
         <f t="shared" si="2"/>
         <v>366197</v>
       </c>
@@ -1037,22 +3728,22 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="19">
         <f t="shared" si="0"/>
         <v>991404365</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20">
+      <c r="D12" s="20"/>
+      <c r="E12" s="21">
         <f t="shared" si="1"/>
         <v>248575</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="22">
         <f t="shared" si="2"/>
         <v>1347142</v>
       </c>
@@ -1138,5 +3829,415 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="8">
+        <f>I3/I2</f>
+        <v>1.155727349782993</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2.7182818283999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>300000</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13">
+        <v>100</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="14">
+        <v>100</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="15">
+        <v>3.1415926535000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <f>ROUND(C$3*POWER(C$1,A4),0)</f>
+        <v>400712</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17">
+        <f>ROUND(E3*POWER(C$1,A4),0)</f>
+        <v>134</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="14">
+        <f>ROUND(G$3*(1+LOG(A4)*A4),0)</f>
+        <v>160</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" ref="C5:C12" si="0">ROUND(C4*POWER(C$1,A5),0)</f>
+        <v>618584</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13">
+        <f t="shared" ref="E5:E12" si="1">ROUND(E4*POWER(C$1,A5),0)</f>
+        <v>207</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G12" si="2">ROUND(G$3*(1+LOG(A5)*A5),0)</f>
+        <v>243</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="0"/>
+        <v>1103622</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="1"/>
+        <v>369</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>2275607</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>761</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="2"/>
+        <v>449</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>5422875</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>1813</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="2"/>
+        <v>567</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>14935416</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>4993</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="2"/>
+        <v>692</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>47540139</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>15893</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="2"/>
+        <v>822</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>174887578</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>58466</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="2"/>
+        <v>959</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" si="0"/>
+        <v>743554611</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21">
+        <f t="shared" si="1"/>
+        <v>248575</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>